--- a/lab/e/mau-excel-3.xlsx
+++ b/lab/e/mau-excel-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13710"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="13710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TT</t>
   </si>
@@ -65,13 +65,70 @@
   </si>
   <si>
     <t>Ngày vào sổ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* Chú ý:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Không nhập trùng</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Số báo danh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Vui lòng nhập đầy đủ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Số báo danh</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +155,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +192,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -190,6 +282,68 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -198,9 +352,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,25 +365,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,136 +688,145 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="25.140625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="L2:M6"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G2:G3"/>
